--- a/output/1Y_P22_KFSDIV.xlsx
+++ b/output/1Y_P22_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>13.9322</v>
       </c>
       <c r="C2" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D2" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>717.7617</v>
+        <v>716.3271999999999</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>12.5846</v>
       </c>
       <c r="C3" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D3" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E3" s="1">
-        <v>717.7617</v>
+        <v>716.3271999999999</v>
       </c>
       <c r="F3" s="1">
-        <v>794.622</v>
+        <v>793.034</v>
       </c>
       <c r="H3" s="1">
-        <v>9032.7443</v>
+        <v>8996.6404</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9032.7443</v>
+        <v>8996.6404</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.09669999999999999</v>
+        <v>-0.1003</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,46 +821,46 @@
         <v>12.2867</v>
       </c>
       <c r="C4" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D4" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E4" s="1">
-        <v>1512.3837</v>
+        <v>1509.3612</v>
       </c>
       <c r="F4" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="H4" s="1">
-        <v>18582.2052</v>
+        <v>18507.9384</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18582.2052</v>
+        <v>18507.9384</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.2242</v>
+        <v>13.2506</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>322.9928</v>
+        <v>322.3473</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9677.0072</v>
+        <v>-9677.652700000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0237</v>
+        <v>-0.0257</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>13.0645</v>
       </c>
       <c r="C5" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D5" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E5" s="1">
-        <v>2326.2719</v>
+        <v>2321.6231</v>
       </c>
       <c r="F5" s="1">
-        <v>768.1799999999999</v>
+        <v>766.6371</v>
       </c>
       <c r="H5" s="1">
-        <v>30391.5795</v>
+        <v>30270.2512</v>
       </c>
       <c r="I5" s="1">
-        <v>322.9928</v>
+        <v>322.3473</v>
       </c>
       <c r="J5" s="1">
-        <v>30714.5723</v>
+        <v>30592.5984</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.8962</v>
+        <v>12.922</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10035.8881</v>
+        <v>-10035.8164</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0746</v>
+        <v>0.0731</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>13.8083</v>
       </c>
       <c r="C6" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D6" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E6" s="1">
-        <v>3094.452</v>
+        <v>3088.2602</v>
       </c>
       <c r="F6" s="1">
-        <v>726.8011</v>
+        <v>725.3409</v>
       </c>
       <c r="H6" s="1">
-        <v>42729.1209</v>
+        <v>42558.388</v>
       </c>
       <c r="I6" s="1">
-        <v>287.1047</v>
+        <v>286.5309</v>
       </c>
       <c r="J6" s="1">
-        <v>43016.2256</v>
+        <v>42844.9189</v>
       </c>
       <c r="K6" s="1">
-        <v>40035.8881</v>
+        <v>40035.8164</v>
       </c>
       <c r="L6" s="1">
-        <v>12.938</v>
+        <v>12.9639</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10035.8881</v>
+        <v>-10035.8164</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0565</v>
+        <v>0.0555</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,46 +971,46 @@
         <v>13.5636</v>
       </c>
       <c r="C7" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D7" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E7" s="1">
-        <v>3821.2531</v>
+        <v>3813.6011</v>
       </c>
       <c r="F7" s="1">
-        <v>739.9133</v>
+        <v>738.4272</v>
       </c>
       <c r="H7" s="1">
-        <v>51829.9484</v>
+        <v>51622.8116</v>
       </c>
       <c r="I7" s="1">
-        <v>251.2166</v>
+        <v>250.7145</v>
       </c>
       <c r="J7" s="1">
-        <v>52081.165</v>
+        <v>51873.5262</v>
       </c>
       <c r="K7" s="1">
-        <v>50071.7762</v>
+        <v>50071.6327</v>
       </c>
       <c r="L7" s="1">
-        <v>13.1035</v>
+        <v>13.1298</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1392.5034</v>
+        <v>1389.7171</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8643.384700000001</v>
+        <v>-8646.0993</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0176</v>
+        <v>-0.0184</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>13.1788</v>
       </c>
       <c r="C8" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D8" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E8" s="1">
-        <v>4561.1664</v>
+        <v>4552.0283</v>
       </c>
       <c r="F8" s="1">
-        <v>779.128</v>
+        <v>777.5298</v>
       </c>
       <c r="H8" s="1">
-        <v>60110.6996</v>
+        <v>59870.0973</v>
       </c>
       <c r="I8" s="1">
-        <v>1607.8319</v>
+        <v>1604.6153</v>
       </c>
       <c r="J8" s="1">
-        <v>61718.5315</v>
+        <v>61474.7126</v>
       </c>
       <c r="K8" s="1">
-        <v>60107.6643</v>
+        <v>60107.4491</v>
       </c>
       <c r="L8" s="1">
-        <v>13.1781</v>
+        <v>13.2045</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10267.972</v>
+        <v>-10267.4359</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0058</v>
+        <v>-0.0064</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>14.5668</v>
       </c>
       <c r="C9" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D9" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E9" s="1">
-        <v>5340.2944</v>
+        <v>5329.5581</v>
       </c>
       <c r="F9" s="1">
-        <v>704.8886</v>
+        <v>703.4417999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>77791.00019999999</v>
+        <v>77479.51639999999</v>
       </c>
       <c r="I9" s="1">
-        <v>1339.8599</v>
+        <v>1337.1794</v>
       </c>
       <c r="J9" s="1">
-        <v>79130.86010000001</v>
+        <v>78816.6958</v>
       </c>
       <c r="K9" s="1">
-        <v>70375.63619999999</v>
+        <v>70374.88499999999</v>
       </c>
       <c r="L9" s="1">
-        <v>13.1782</v>
+        <v>13.2046</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10267.972</v>
+        <v>-10267.4359</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.1034</v>
+        <v>0.1027</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,46 +1121,46 @@
         <v>13.962</v>
       </c>
       <c r="C10" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D10" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E10" s="1">
-        <v>6045.183</v>
+        <v>6032.9998</v>
       </c>
       <c r="F10" s="1">
-        <v>735.4227</v>
+        <v>733.9125</v>
       </c>
       <c r="H10" s="1">
-        <v>84402.8455</v>
+        <v>84064.42290000001</v>
       </c>
       <c r="I10" s="1">
-        <v>1071.8879</v>
+        <v>1069.7435</v>
       </c>
       <c r="J10" s="1">
-        <v>85474.7334</v>
+        <v>85134.16650000001</v>
       </c>
       <c r="K10" s="1">
-        <v>80643.6082</v>
+        <v>80642.3208</v>
       </c>
       <c r="L10" s="1">
-        <v>13.3401</v>
+        <v>13.3669</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2403.1325</v>
+        <v>2398.3011</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7864.8395</v>
+        <v>-7869.1347</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.041</v>
+        <v>-0.0415</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>12.2659</v>
       </c>
       <c r="C11" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D11" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E11" s="1">
-        <v>6780.6058</v>
+        <v>6766.9123</v>
       </c>
       <c r="F11" s="1">
-        <v>902.4218</v>
+        <v>900.441</v>
       </c>
       <c r="H11" s="1">
-        <v>83170.23209999999</v>
+        <v>82836.4806</v>
       </c>
       <c r="I11" s="1">
-        <v>3207.0484</v>
+        <v>3200.6088</v>
       </c>
       <c r="J11" s="1">
-        <v>86377.28049999999</v>
+        <v>86037.0894</v>
       </c>
       <c r="K11" s="1">
-        <v>90911.5802</v>
+        <v>90909.7567</v>
       </c>
       <c r="L11" s="1">
-        <v>13.4076</v>
+        <v>13.4345</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11069.0161</v>
+        <v>-11066.8696</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0953</v>
+        <v>-0.0956</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>12.4103</v>
       </c>
       <c r="C12" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D12" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E12" s="1">
-        <v>7683.0276</v>
+        <v>7667.3533</v>
       </c>
       <c r="F12" s="1">
-        <v>891.9217</v>
+        <v>889.9631000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>95348.6774</v>
+        <v>94964.0042</v>
       </c>
       <c r="I12" s="1">
-        <v>2138.0323</v>
+        <v>2133.7392</v>
       </c>
       <c r="J12" s="1">
-        <v>97486.70970000001</v>
+        <v>97097.7433</v>
       </c>
       <c r="K12" s="1">
-        <v>101980.5964</v>
+        <v>101976.6263</v>
       </c>
       <c r="L12" s="1">
-        <v>13.2735</v>
+        <v>13.3001</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11069.0161</v>
+        <v>-11066.8696</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0115</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,46 +1271,46 @@
         <v>12.3976</v>
       </c>
       <c r="C13" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D13" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E13" s="1">
-        <v>8574.9493</v>
+        <v>8557.3164</v>
       </c>
       <c r="F13" s="1">
-        <v>892.8354</v>
+        <v>890.8801999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>106308.7917</v>
+        <v>105877.9647</v>
       </c>
       <c r="I13" s="1">
-        <v>1069.0161</v>
+        <v>1066.8696</v>
       </c>
       <c r="J13" s="1">
-        <v>107377.8078</v>
+        <v>106944.8343</v>
       </c>
       <c r="K13" s="1">
-        <v>113049.6125</v>
+        <v>113043.4959</v>
       </c>
       <c r="L13" s="1">
-        <v>13.1837</v>
+        <v>13.2102</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>3457.3624</v>
+        <v>3450.309</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7611.6537</v>
+        <v>-7616.5606</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.001</v>
+        <v>-0.0014</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>12.9013</v>
       </c>
       <c r="C14" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D14" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E14" s="1">
-        <v>9467.7847</v>
+        <v>9448.196599999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-9467.7847</v>
+        <v>-9448.196599999999</v>
       </c>
       <c r="H14" s="1">
-        <v>122146.731</v>
+        <v>121650.255</v>
       </c>
       <c r="I14" s="1">
-        <v>3457.3624</v>
+        <v>3450.309</v>
       </c>
       <c r="J14" s="1">
-        <v>125604.0934</v>
+        <v>125100.564</v>
       </c>
       <c r="K14" s="1">
-        <v>124118.6286</v>
+        <v>124110.3655</v>
       </c>
       <c r="L14" s="1">
-        <v>13.1096</v>
+        <v>13.1359</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>122146.731</v>
+        <v>121650.255</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0701</v>
+        <v>0.0697</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>13.9322</v>
       </c>
       <c r="C2" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D2" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>717.7617</v>
+        <v>716.3271999999999</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>12.5846</v>
       </c>
       <c r="C3" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D3" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E3" s="1">
-        <v>717.7617</v>
+        <v>716.3271999999999</v>
       </c>
       <c r="F3" s="1">
-        <v>794.622</v>
+        <v>793.034</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>9032.7443</v>
+        <v>8996.6404</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9032.7443</v>
+        <v>8996.6404</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.09669999999999999</v>
+        <v>-0.1003</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,49 +1556,49 @@
         <v>12.2867</v>
       </c>
       <c r="C4" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D4" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E4" s="1">
-        <v>1512.3837</v>
+        <v>1509.3612</v>
       </c>
       <c r="F4" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>18582.2052</v>
+        <v>18507.9384</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18582.2052</v>
+        <v>18507.9384</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.2242</v>
+        <v>13.2506</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>322.9928</v>
+        <v>322.3473</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9677.0072</v>
+        <v>-9677.652700000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0237</v>
+        <v>-0.0257</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>13.0645</v>
       </c>
       <c r="C5" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D5" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E5" s="1">
-        <v>2326.2719</v>
+        <v>2321.6231</v>
       </c>
       <c r="F5" s="1">
-        <v>735.4603</v>
+        <v>746.2379</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>30391.5795</v>
+        <v>30270.2512</v>
       </c>
       <c r="I5" s="1">
-        <v>322.9928</v>
+        <v>322.3473</v>
       </c>
       <c r="J5" s="1">
-        <v>30714.5723</v>
+        <v>30592.5984</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.8962</v>
+        <v>12.922</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9608.4205</v>
+        <v>-9768.777099999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0746</v>
+        <v>0.0731</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>13.8083</v>
       </c>
       <c r="C6" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D6" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E6" s="1">
-        <v>3061.7322</v>
+        <v>3067.8611</v>
       </c>
       <c r="F6" s="1">
-        <v>559.2784</v>
+        <v>560.4016</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>42277.3164</v>
+        <v>42277.2733</v>
       </c>
       <c r="I6" s="1">
-        <v>714.5723</v>
+        <v>553.5702</v>
       </c>
       <c r="J6" s="1">
-        <v>42991.8886</v>
+        <v>42830.8435</v>
       </c>
       <c r="K6" s="1">
-        <v>39608.4205</v>
+        <v>39768.7771</v>
       </c>
       <c r="L6" s="1">
-        <v>12.9366</v>
+        <v>12.963</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-7722.6836</v>
+        <v>-7753.7169</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0559</v>
+        <v>0.0551</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,49 +1715,49 @@
         <v>13.5636</v>
       </c>
       <c r="C7" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D7" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E7" s="1">
-        <v>3621.0106</v>
+        <v>3628.2627</v>
       </c>
       <c r="F7" s="1">
-        <v>802.5938</v>
+        <v>804.1977000000001</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>49113.9387</v>
+        <v>49113.9782</v>
       </c>
       <c r="I7" s="1">
-        <v>2991.8886</v>
+        <v>2799.8533</v>
       </c>
       <c r="J7" s="1">
-        <v>52105.8274</v>
+        <v>51913.8315</v>
       </c>
       <c r="K7" s="1">
-        <v>47331.1041</v>
+        <v>47522.494</v>
       </c>
       <c r="L7" s="1">
-        <v>13.0712</v>
+        <v>13.0979</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1377.7795</v>
+        <v>1380.5375</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9508.281800000001</v>
+        <v>-9549.1522</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0167</v>
+        <v>-0.0174</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>13.1788</v>
       </c>
       <c r="C8" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D8" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E8" s="1">
-        <v>4423.6044</v>
+        <v>4432.4604</v>
       </c>
       <c r="F8" s="1">
-        <v>887.9566</v>
+        <v>889.7622</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>58297.797</v>
+        <v>58297.492</v>
       </c>
       <c r="I8" s="1">
-        <v>3483.6068</v>
+        <v>3250.7011</v>
       </c>
       <c r="J8" s="1">
-        <v>61781.4039</v>
+        <v>61548.193</v>
       </c>
       <c r="K8" s="1">
-        <v>58217.1654</v>
+        <v>58452.1837</v>
       </c>
       <c r="L8" s="1">
-        <v>13.1606</v>
+        <v>13.1873</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11702.203</v>
+        <v>-11749.4875</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0052</v>
+        <v>-0.0059</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>14.5668</v>
       </c>
       <c r="C9" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D9" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E9" s="1">
-        <v>5311.561</v>
+        <v>5322.2226</v>
       </c>
       <c r="F9" s="1">
-        <v>180.3796</v>
+        <v>180.7112</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>77372.4467</v>
+        <v>77372.8749</v>
       </c>
       <c r="I9" s="1">
-        <v>1781.4039</v>
+        <v>1501.2136</v>
       </c>
       <c r="J9" s="1">
-        <v>79153.8505</v>
+        <v>78874.0885</v>
       </c>
       <c r="K9" s="1">
-        <v>69919.36840000001</v>
+        <v>70201.6712</v>
       </c>
       <c r="L9" s="1">
-        <v>13.1636</v>
+        <v>13.1903</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-2627.5533</v>
+        <v>-2637.6605</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.1027</v>
+        <v>0.1024</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,49 +1874,49 @@
         <v>13.962</v>
       </c>
       <c r="C10" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D10" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E10" s="1">
-        <v>5491.9406</v>
+        <v>5502.9338</v>
       </c>
       <c r="F10" s="1">
-        <v>954.1273</v>
+        <v>956.0410000000001</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>76678.4743</v>
+        <v>76678.4292</v>
       </c>
       <c r="I10" s="1">
-        <v>9153.8505</v>
+        <v>8863.553</v>
       </c>
       <c r="J10" s="1">
-        <v>85832.32490000001</v>
+        <v>85541.9822</v>
       </c>
       <c r="K10" s="1">
-        <v>72546.92170000001</v>
+        <v>72839.3317</v>
       </c>
       <c r="L10" s="1">
-        <v>13.2097</v>
+        <v>13.2365</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2390.2024</v>
+        <v>2395.0002</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10931.3232</v>
+        <v>-10980.0134</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0373</v>
+        <v>-0.0375</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>12.2659</v>
       </c>
       <c r="C11" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D11" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E11" s="1">
-        <v>6446.0679</v>
+        <v>6458.9747</v>
       </c>
       <c r="F11" s="1">
-        <v>1485.625</v>
+        <v>1455.0702</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>79066.8242</v>
+        <v>79066.8934</v>
       </c>
       <c r="I11" s="1">
-        <v>8222.5273</v>
+        <v>7883.5397</v>
       </c>
       <c r="J11" s="1">
-        <v>87289.35159999999</v>
+        <v>86950.43309999999</v>
       </c>
       <c r="K11" s="1">
-        <v>85868.4474</v>
+        <v>86214.3452</v>
       </c>
       <c r="L11" s="1">
-        <v>13.3211</v>
+        <v>13.348</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-18222.5273</v>
+        <v>-17883.5397</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0891</v>
+        <v>-0.08989999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>12.4103</v>
       </c>
       <c r="C12" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D12" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E12" s="1">
-        <v>7931.6929</v>
+        <v>7914.0449</v>
       </c>
       <c r="F12" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>98434.68799999999</v>
+        <v>98019.4031</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J12" s="1">
-        <v>98434.68799999999</v>
+        <v>98019.4031</v>
       </c>
       <c r="K12" s="1">
-        <v>104090.9747</v>
+        <v>104097.8849</v>
       </c>
       <c r="L12" s="1">
-        <v>13.1234</v>
+        <v>13.1536</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0118</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,49 +2033,49 @@
         <v>12.3976</v>
       </c>
       <c r="C13" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D13" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E13" s="1">
-        <v>8737.475200000001</v>
+        <v>8718.2137</v>
       </c>
       <c r="F13" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>108323.7221</v>
+        <v>107868.7146</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>108323.7221</v>
+        <v>107868.7146</v>
       </c>
       <c r="K13" s="1">
-        <v>114090.9747</v>
+        <v>114097.8849</v>
       </c>
       <c r="L13" s="1">
-        <v>13.0577</v>
+        <v>13.0873</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>3569.2618</v>
+        <v>3561.3202</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-6430.7382</v>
+        <v>-6438.6798</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.001</v>
+        <v>-0.0014</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>12.9013</v>
       </c>
       <c r="C14" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D14" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E14" s="1">
-        <v>9544.082899999999</v>
+        <v>9523.2111</v>
       </c>
       <c r="F14" s="1">
-        <v>-9544.082899999999</v>
+        <v>-9523.2111</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>123131.0766</v>
+        <v>122616.1049</v>
       </c>
       <c r="I14" s="1">
-        <v>3569.2618</v>
+        <v>3561.3202</v>
       </c>
       <c r="J14" s="1">
-        <v>126700.3384</v>
+        <v>126177.4251</v>
       </c>
       <c r="K14" s="1">
-        <v>124090.9747</v>
+        <v>124097.8849</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0019</v>
+        <v>13.0311</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>123131.0766</v>
+        <v>122616.1049</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0708</v>
+        <v>0.07049999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>13.9322</v>
       </c>
       <c r="C2" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D2" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>717.7617</v>
+        <v>716.3271999999999</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>12.5846</v>
       </c>
       <c r="C3" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D3" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E3" s="1">
-        <v>717.7617</v>
+        <v>716.3271999999999</v>
       </c>
       <c r="F3" s="1">
-        <v>794.622</v>
+        <v>793.034</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>9032.7443</v>
+        <v>8996.6404</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9032.7443</v>
+        <v>8996.6404</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.09669999999999999</v>
+        <v>-0.1003</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,49 +2324,49 @@
         <v>12.2867</v>
       </c>
       <c r="C4" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D4" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E4" s="1">
-        <v>1512.3837</v>
+        <v>1509.3612</v>
       </c>
       <c r="F4" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>18582.2052</v>
+        <v>18507.9384</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18582.2052</v>
+        <v>18507.9384</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.2242</v>
+        <v>13.2506</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>322.9928</v>
+        <v>322.3473</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9677.0072</v>
+        <v>-9677.652700000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0237</v>
+        <v>-0.0257</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>13.0645</v>
       </c>
       <c r="C5" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D5" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E5" s="1">
-        <v>2326.2719</v>
+        <v>2321.6231</v>
       </c>
       <c r="F5" s="1">
-        <v>758.4999</v>
+        <v>769.3237</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>30391.5795</v>
+        <v>30270.2512</v>
       </c>
       <c r="I5" s="1">
-        <v>322.9928</v>
+        <v>322.3473</v>
       </c>
       <c r="J5" s="1">
-        <v>30714.5723</v>
+        <v>30592.5984</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.8962</v>
+        <v>12.922</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9909.4218</v>
+        <v>-10070.9857</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0746</v>
+        <v>0.0731</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>13.8083</v>
       </c>
       <c r="C6" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D6" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E6" s="1">
-        <v>3084.7718</v>
+        <v>3090.9468</v>
       </c>
       <c r="F6" s="1">
-        <v>572.6304</v>
+        <v>573.7804</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>42595.4545</v>
+        <v>42595.4111</v>
       </c>
       <c r="I6" s="1">
-        <v>413.571</v>
+        <v>251.3616</v>
       </c>
       <c r="J6" s="1">
-        <v>43009.0255</v>
+        <v>42846.7726</v>
       </c>
       <c r="K6" s="1">
-        <v>39909.4218</v>
+        <v>40070.9857</v>
       </c>
       <c r="L6" s="1">
-        <v>12.9376</v>
+        <v>12.964</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-7907.0517</v>
+        <v>-7938.8252</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0564</v>
+        <v>0.0555</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,49 +2483,49 @@
         <v>13.5636</v>
       </c>
       <c r="C7" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D7" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E7" s="1">
-        <v>3657.4022</v>
+        <v>3664.7272</v>
       </c>
       <c r="F7" s="1">
-        <v>821.8673</v>
+        <v>823.5097</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>49607.5399</v>
+        <v>49607.5799</v>
       </c>
       <c r="I7" s="1">
-        <v>2506.5193</v>
+        <v>2312.5363</v>
       </c>
       <c r="J7" s="1">
-        <v>52114.0592</v>
+        <v>51920.1162</v>
       </c>
       <c r="K7" s="1">
-        <v>47816.4735</v>
+        <v>48009.8109</v>
       </c>
       <c r="L7" s="1">
-        <v>13.0739</v>
+        <v>13.1005</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1388.1473</v>
+        <v>1390.9261</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9759.3315</v>
+        <v>-9801.2294</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0169</v>
+        <v>-0.0175</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>13.1788</v>
       </c>
       <c r="C8" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D8" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E8" s="1">
-        <v>4479.2694</v>
+        <v>4488.2369</v>
       </c>
       <c r="F8" s="1">
-        <v>912.6323</v>
+        <v>914.4876</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>59031.3959</v>
+        <v>59031.087</v>
       </c>
       <c r="I8" s="1">
-        <v>2747.1877</v>
+        <v>2511.3069</v>
       </c>
       <c r="J8" s="1">
-        <v>61778.5837</v>
+        <v>61542.3939</v>
       </c>
       <c r="K8" s="1">
-        <v>58963.9524</v>
+        <v>59201.9664</v>
       </c>
       <c r="L8" s="1">
-        <v>13.1637</v>
+        <v>13.1905</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-12027.398</v>
+        <v>-12075.9918</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0054</v>
+        <v>-0.0061</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>14.5668</v>
       </c>
       <c r="C9" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D9" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E9" s="1">
-        <v>5391.9017</v>
+        <v>5402.7245</v>
       </c>
       <c r="F9" s="1">
-        <v>197.115</v>
+        <v>197.4796</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>78542.7534</v>
+        <v>78543.1881</v>
       </c>
       <c r="I9" s="1">
-        <v>719.7898</v>
+        <v>435.3151</v>
       </c>
       <c r="J9" s="1">
-        <v>79262.5432</v>
+        <v>78978.50320000001</v>
       </c>
       <c r="K9" s="1">
-        <v>70991.35030000001</v>
+        <v>71277.9583</v>
       </c>
       <c r="L9" s="1">
-        <v>13.1663</v>
+        <v>13.193</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-2871.3344</v>
+        <v>-2882.4128</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.1043</v>
+        <v>0.1039</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,49 +2642,49 @@
         <v>13.962</v>
       </c>
       <c r="C10" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D10" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E10" s="1">
-        <v>5589.0167</v>
+        <v>5600.2041</v>
       </c>
       <c r="F10" s="1">
-        <v>987.4880000000001</v>
+        <v>989.4684999999999</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>78033.85060000001</v>
+        <v>78033.8046</v>
       </c>
       <c r="I10" s="1">
-        <v>7848.4553</v>
+        <v>7552.9023</v>
       </c>
       <c r="J10" s="1">
-        <v>85882.30590000001</v>
+        <v>85586.7069</v>
       </c>
       <c r="K10" s="1">
-        <v>73862.6848</v>
+        <v>74160.371</v>
       </c>
       <c r="L10" s="1">
-        <v>13.2157</v>
+        <v>13.2424</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2426.3558</v>
+        <v>2431.226</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11360.952</v>
+        <v>-11411.4389</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0379</v>
+        <v>-0.0381</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>12.2659</v>
       </c>
       <c r="C11" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D11" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E11" s="1">
-        <v>6576.5047</v>
+        <v>6589.6727</v>
       </c>
       <c r="F11" s="1">
-        <v>1344.174</v>
+        <v>1313.3285</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>80666.7487</v>
+        <v>80666.8193</v>
       </c>
       <c r="I11" s="1">
-        <v>6487.5034</v>
+        <v>6141.4634</v>
       </c>
       <c r="J11" s="1">
-        <v>87154.2521</v>
+        <v>86808.2827</v>
       </c>
       <c r="K11" s="1">
-        <v>87649.99249999999</v>
+        <v>88003.03599999999</v>
       </c>
       <c r="L11" s="1">
-        <v>13.3277</v>
+        <v>13.3547</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-16487.5034</v>
+        <v>-16141.4634</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.091</v>
+        <v>-0.09180000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>12.4103</v>
       </c>
       <c r="C12" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D12" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E12" s="1">
-        <v>7920.6786</v>
+        <v>7903.0012</v>
       </c>
       <c r="F12" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>98297.9981</v>
+        <v>97882.6208</v>
       </c>
       <c r="I12" s="1">
         <v>-0</v>
       </c>
       <c r="J12" s="1">
-        <v>98297.9981</v>
+        <v>97882.6208</v>
       </c>
       <c r="K12" s="1">
-        <v>104137.4958</v>
+        <v>104144.4994</v>
       </c>
       <c r="L12" s="1">
-        <v>13.1475</v>
+        <v>13.1778</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2790,7 +2790,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0118</v>
+        <v>0.0111</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,49 +2801,49 @@
         <v>12.3976</v>
       </c>
       <c r="C13" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D13" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E13" s="1">
-        <v>8726.4609</v>
+        <v>8707.17</v>
       </c>
       <c r="F13" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>108187.172</v>
+        <v>107732.0725</v>
       </c>
       <c r="I13" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>108187.172</v>
+        <v>107732.0725</v>
       </c>
       <c r="K13" s="1">
-        <v>114137.4958</v>
+        <v>114144.4994</v>
       </c>
       <c r="L13" s="1">
-        <v>13.0795</v>
+        <v>13.1093</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>3564.3054</v>
+        <v>3556.3505</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-6435.6946</v>
+        <v>-6443.6495</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.001</v>
+        <v>-0.0014</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>12.9013</v>
       </c>
       <c r="C14" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D14" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E14" s="1">
-        <v>9533.0687</v>
+        <v>9512.1674</v>
       </c>
       <c r="F14" s="1">
-        <v>-9533.0687</v>
+        <v>-9512.1674</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>122988.9787</v>
+        <v>122473.9112</v>
       </c>
       <c r="I14" s="1">
-        <v>3564.3054</v>
+        <v>3556.3505</v>
       </c>
       <c r="J14" s="1">
-        <v>126553.2841</v>
+        <v>126030.2617</v>
       </c>
       <c r="K14" s="1">
-        <v>124137.4958</v>
+        <v>124144.4994</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0218</v>
+        <v>13.0511</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>122988.9787</v>
+        <v>122473.9112</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0708</v>
+        <v>0.07049999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>13.9322</v>
       </c>
       <c r="C2" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D2" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>717.7617</v>
+        <v>716.3271999999999</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>12.5846</v>
       </c>
       <c r="C3" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D3" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E3" s="1">
-        <v>717.7617</v>
+        <v>716.3271999999999</v>
       </c>
       <c r="F3" s="1">
-        <v>794.622</v>
+        <v>793.034</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>9032.7443</v>
+        <v>8996.6404</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9032.7443</v>
+        <v>8996.6404</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.09669999999999999</v>
+        <v>-0.1003</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,49 +3092,49 @@
         <v>12.2867</v>
       </c>
       <c r="C4" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D4" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E4" s="1">
-        <v>1512.3837</v>
+        <v>1509.3612</v>
       </c>
       <c r="F4" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>18582.2052</v>
+        <v>18507.9384</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18582.2052</v>
+        <v>18507.9384</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.2242</v>
+        <v>13.2506</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>322.9928</v>
+        <v>322.3473</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9677.0072</v>
+        <v>-9677.652700000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0237</v>
+        <v>-0.0257</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>13.0645</v>
       </c>
       <c r="C5" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D5" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E5" s="1">
-        <v>2326.2719</v>
+        <v>2321.6231</v>
       </c>
       <c r="F5" s="1">
-        <v>781.6932</v>
+        <v>788.5252</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>30391.5795</v>
+        <v>30270.2512</v>
       </c>
       <c r="I5" s="1">
-        <v>322.9928</v>
+        <v>322.3473</v>
       </c>
       <c r="J5" s="1">
-        <v>30714.5723</v>
+        <v>30592.5984</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.8962</v>
+        <v>12.922</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10212.4305</v>
+        <v>-10322.3473</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0746</v>
+        <v>0.0731</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>13.8083</v>
       </c>
       <c r="C6" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D6" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E6" s="1">
-        <v>3107.9651</v>
+        <v>3110.1484</v>
       </c>
       <c r="F6" s="1">
-        <v>586.1935</v>
+        <v>591.4089</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>42915.7144</v>
+        <v>42860.0217</v>
       </c>
       <c r="I6" s="1">
-        <v>110.5623</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>43026.2767</v>
+        <v>42860.0217</v>
       </c>
       <c r="K6" s="1">
-        <v>40212.4305</v>
+        <v>40322.3473</v>
       </c>
       <c r="L6" s="1">
-        <v>12.9385</v>
+        <v>12.9648</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8094.3357</v>
+        <v>-8182.7333</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0568</v>
+        <v>0.0559</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,49 +3251,49 @@
         <v>13.5636</v>
       </c>
       <c r="C7" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D7" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E7" s="1">
-        <v>3694.1586</v>
+        <v>3701.5573</v>
       </c>
       <c r="F7" s="1">
-        <v>841.5214999999999</v>
+        <v>843.2032</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>50106.0895</v>
+        <v>50106.1298</v>
       </c>
       <c r="I7" s="1">
-        <v>2016.2266</v>
+        <v>1817.2667</v>
       </c>
       <c r="J7" s="1">
-        <v>52122.3161</v>
+        <v>51923.3965</v>
       </c>
       <c r="K7" s="1">
-        <v>48306.7662</v>
+        <v>48505.0806</v>
       </c>
       <c r="L7" s="1">
-        <v>13.0765</v>
+        <v>13.104</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1398.5843</v>
+        <v>1399.5668</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10015.4768</v>
+        <v>-10060.24</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.017</v>
+        <v>-0.0177</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>13.1788</v>
       </c>
       <c r="C8" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D8" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E8" s="1">
-        <v>4535.6801</v>
+        <v>4544.7605</v>
       </c>
       <c r="F8" s="1">
-        <v>910.6102</v>
+        <v>890.3330999999999</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>59774.8209</v>
+        <v>59774.5081</v>
       </c>
       <c r="I8" s="1">
-        <v>2000.7498</v>
+        <v>1757.0267</v>
       </c>
       <c r="J8" s="1">
-        <v>61775.5707</v>
+        <v>61531.5348</v>
       </c>
       <c r="K8" s="1">
-        <v>59720.8273</v>
+        <v>59964.8873</v>
       </c>
       <c r="L8" s="1">
-        <v>13.1669</v>
+        <v>13.1943</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-12000.7498</v>
+        <v>-11757.0267</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0056</v>
+        <v>-0.0063</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>14.5668</v>
       </c>
       <c r="C9" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D9" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E9" s="1">
-        <v>5446.2903</v>
+        <v>5435.0936</v>
       </c>
       <c r="F9" s="1">
-        <v>241.761</v>
+        <v>264.3434</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>79335.02159999999</v>
+        <v>79013.7604</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>79335.02159999999</v>
+        <v>79013.7604</v>
       </c>
       <c r="K9" s="1">
-        <v>71721.57709999999</v>
+        <v>71721.914</v>
       </c>
       <c r="L9" s="1">
-        <v>13.1689</v>
+        <v>13.1961</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-3521.684</v>
+        <v>-3858.3564</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.1053</v>
+        <v>0.1046</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,49 +3410,49 @@
         <v>13.962</v>
       </c>
       <c r="C10" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D10" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E10" s="1">
-        <v>5688.0513</v>
+        <v>5699.437</v>
       </c>
       <c r="F10" s="1">
-        <v>1021.9668</v>
+        <v>1024.0164</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>79416.5722</v>
+        <v>79416.5254</v>
       </c>
       <c r="I10" s="1">
-        <v>6478.316</v>
+        <v>6141.6436</v>
       </c>
       <c r="J10" s="1">
-        <v>85894.8882</v>
+        <v>85558.16899999999</v>
       </c>
       <c r="K10" s="1">
-        <v>75243.2611</v>
+        <v>75580.27039999999</v>
       </c>
       <c r="L10" s="1">
-        <v>13.2283</v>
+        <v>13.261</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2450.8306</v>
+        <v>2445.7921</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11817.8698</v>
+        <v>-11880.1976</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0385</v>
+        <v>-0.0388</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>12.2659</v>
       </c>
       <c r="C11" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D11" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E11" s="1">
-        <v>6710.0181</v>
+        <v>6723.4534</v>
       </c>
       <c r="F11" s="1">
-        <v>1195.2198</v>
+        <v>1160.3634</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>82304.41099999999</v>
+        <v>82304.48299999999</v>
       </c>
       <c r="I11" s="1">
-        <v>4660.4461</v>
+        <v>4261.4459</v>
       </c>
       <c r="J11" s="1">
-        <v>86964.85709999999</v>
+        <v>86565.929</v>
       </c>
       <c r="K11" s="1">
-        <v>89511.9616</v>
+        <v>89906.2602</v>
       </c>
       <c r="L11" s="1">
-        <v>13.34</v>
+        <v>13.372</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-14660.4461</v>
+        <v>-14261.4459</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0931</v>
+        <v>-0.0941</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>12.4103</v>
       </c>
       <c r="C12" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D12" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E12" s="1">
-        <v>7905.2379</v>
+        <v>7883.8168</v>
       </c>
       <c r="F12" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>98106.3735</v>
+        <v>97645.0131</v>
       </c>
       <c r="I12" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>98106.3735</v>
+        <v>97645.0131</v>
       </c>
       <c r="K12" s="1">
-        <v>104172.4077</v>
+        <v>104167.7062</v>
       </c>
       <c r="L12" s="1">
-        <v>13.1776</v>
+        <v>13.2129</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3558,7 +3558,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0118</v>
+        <v>0.0112</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,49 +3569,49 @@
         <v>12.3976</v>
       </c>
       <c r="C13" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D13" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E13" s="1">
-        <v>8711.020200000001</v>
+        <v>8687.9856</v>
       </c>
       <c r="F13" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>107995.7435</v>
+        <v>107494.7085</v>
       </c>
       <c r="I13" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>107995.7435</v>
+        <v>107494.7085</v>
       </c>
       <c r="K13" s="1">
-        <v>114172.4077</v>
+        <v>114167.7062</v>
       </c>
       <c r="L13" s="1">
-        <v>13.1067</v>
+        <v>13.1409</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>3557.357</v>
+        <v>3547.7176</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-6442.643</v>
+        <v>-6452.2824</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.001</v>
+        <v>-0.0014</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>12.9013</v>
       </c>
       <c r="C14" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D14" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E14" s="1">
-        <v>9517.627899999999</v>
+        <v>9492.983</v>
       </c>
       <c r="F14" s="1">
-        <v>-9517.627899999999</v>
+        <v>-9492.983</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>122789.7727</v>
+        <v>122226.9032</v>
       </c>
       <c r="I14" s="1">
-        <v>3557.357</v>
+        <v>3547.7176</v>
       </c>
       <c r="J14" s="1">
-        <v>126347.1297</v>
+        <v>125774.6208</v>
       </c>
       <c r="K14" s="1">
-        <v>124172.4077</v>
+        <v>124167.7062</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0466</v>
+        <v>13.0799</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>122789.7727</v>
+        <v>122226.9032</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0708</v>
+        <v>0.07049999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>13.9322</v>
       </c>
       <c r="C2" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D2" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>717.7617</v>
+        <v>716.3271999999999</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>12.5846</v>
       </c>
       <c r="C3" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D3" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E3" s="1">
-        <v>717.7617</v>
+        <v>716.3271999999999</v>
       </c>
       <c r="F3" s="1">
-        <v>794.622</v>
+        <v>793.034</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>9032.7443</v>
+        <v>8996.6404</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9032.7443</v>
+        <v>8996.6404</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.09669999999999999</v>
+        <v>-0.1003</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,49 +3860,49 @@
         <v>12.2867</v>
       </c>
       <c r="C4" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D4" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E4" s="1">
-        <v>1512.3837</v>
+        <v>1509.3612</v>
       </c>
       <c r="F4" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>18582.2052</v>
+        <v>18507.9384</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18582.2052</v>
+        <v>18507.9384</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.2242</v>
+        <v>13.2506</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>322.9928</v>
+        <v>322.3473</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9677.0072</v>
+        <v>-9677.652700000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0237</v>
+        <v>-0.0257</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>13.0645</v>
       </c>
       <c r="C5" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D5" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E5" s="1">
-        <v>2326.2719</v>
+        <v>2321.6231</v>
       </c>
       <c r="F5" s="1">
-        <v>790.1559999999999</v>
+        <v>788.5252</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>30391.5795</v>
+        <v>30270.2512</v>
       </c>
       <c r="I5" s="1">
-        <v>322.9928</v>
+        <v>322.3473</v>
       </c>
       <c r="J5" s="1">
-        <v>30714.5723</v>
+        <v>30592.5984</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.8962</v>
+        <v>12.922</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10322.9928</v>
+        <v>-10322.3473</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0746</v>
+        <v>0.0731</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>13.8083</v>
       </c>
       <c r="C6" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D6" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E6" s="1">
-        <v>3116.4279</v>
+        <v>3110.1484</v>
       </c>
       <c r="F6" s="1">
-        <v>614.8547</v>
+        <v>628.6072</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>43032.5713</v>
+        <v>42860.0217</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>43032.5713</v>
+        <v>42860.0217</v>
       </c>
       <c r="K6" s="1">
-        <v>40322.9928</v>
+        <v>40322.3473</v>
       </c>
       <c r="L6" s="1">
-        <v>12.9388</v>
+        <v>12.9648</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8490.097900000001</v>
+        <v>-8697.4095</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0569</v>
+        <v>0.0559</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,49 +4019,49 @@
         <v>13.5636</v>
       </c>
       <c r="C7" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D7" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E7" s="1">
-        <v>3731.2826</v>
+        <v>3738.7556</v>
       </c>
       <c r="F7" s="1">
-        <v>848.5875</v>
+        <v>831.6354</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>50609.6244</v>
+        <v>50609.6651</v>
       </c>
       <c r="I7" s="1">
-        <v>1509.9021</v>
+        <v>1302.5905</v>
       </c>
       <c r="J7" s="1">
-        <v>52119.5265</v>
+        <v>51912.2556</v>
       </c>
       <c r="K7" s="1">
-        <v>48813.0907</v>
+        <v>49019.7568</v>
       </c>
       <c r="L7" s="1">
-        <v>13.0821</v>
+        <v>13.1112</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1402.3926</v>
+        <v>1399.5668</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10107.5095</v>
+        <v>-9903.0237</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0172</v>
+        <v>-0.0179</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>13.1788</v>
       </c>
       <c r="C8" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D8" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E8" s="1">
-        <v>4579.8701</v>
+        <v>4570.391</v>
       </c>
       <c r="F8" s="1">
-        <v>865.2071999999999</v>
+        <v>863.2635</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>60357.1925</v>
+        <v>60111.6106</v>
       </c>
       <c r="I8" s="1">
-        <v>1402.3926</v>
+        <v>1399.5668</v>
       </c>
       <c r="J8" s="1">
-        <v>61759.585</v>
+        <v>61511.1774</v>
       </c>
       <c r="K8" s="1">
-        <v>60322.9928</v>
+        <v>60322.3473</v>
       </c>
       <c r="L8" s="1">
-        <v>13.1713</v>
+        <v>13.1985</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11402.3926</v>
+        <v>-11399.5668</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0058</v>
+        <v>-0.0065</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>14.5668</v>
       </c>
       <c r="C9" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D9" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E9" s="1">
-        <v>5445.0773</v>
+        <v>5433.6545</v>
       </c>
       <c r="F9" s="1">
-        <v>344.0041</v>
+        <v>367.0149</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>79317.3523</v>
+        <v>78992.8386</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>79317.3523</v>
+        <v>78992.8386</v>
       </c>
       <c r="K9" s="1">
-        <v>71725.38529999999</v>
+        <v>71721.914</v>
       </c>
       <c r="L9" s="1">
-        <v>13.1725</v>
+        <v>13.1996</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-5011.0387</v>
+        <v>-5356.9494</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.1053</v>
+        <v>0.1046</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,49 +4178,49 @@
         <v>13.962</v>
       </c>
       <c r="C10" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D10" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E10" s="1">
-        <v>5789.0814</v>
+        <v>5800.6694</v>
       </c>
       <c r="F10" s="1">
-        <v>1057.5965</v>
+        <v>1046.6798</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>80827.15459999999</v>
+        <v>80827.107</v>
       </c>
       <c r="I10" s="1">
-        <v>4988.9613</v>
+        <v>4643.0506</v>
       </c>
       <c r="J10" s="1">
-        <v>85816.1159</v>
+        <v>85470.15760000001</v>
       </c>
       <c r="K10" s="1">
-        <v>76736.4241</v>
+        <v>77078.8634</v>
       </c>
       <c r="L10" s="1">
-        <v>13.2554</v>
+        <v>13.2879</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2450.2848</v>
+        <v>2445.1445</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-12315.8775</v>
+        <v>-12197.9061</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0392</v>
+        <v>-0.0396</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>12.2659</v>
       </c>
       <c r="C11" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D11" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E11" s="1">
-        <v>6846.6779</v>
+        <v>6847.3492</v>
       </c>
       <c r="F11" s="1">
-        <v>1033.1964</v>
+        <v>1012.5824</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>83980.66650000001</v>
+        <v>83821.1403</v>
       </c>
       <c r="I11" s="1">
-        <v>2673.0838</v>
+        <v>2445.1445</v>
       </c>
       <c r="J11" s="1">
-        <v>86653.7503</v>
+        <v>86266.28479999999</v>
       </c>
       <c r="K11" s="1">
-        <v>91502.5864</v>
+        <v>91721.914</v>
       </c>
       <c r="L11" s="1">
-        <v>13.3645</v>
+        <v>13.3952</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-12673.0838</v>
+        <v>-12445.1445</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0956</v>
+        <v>-0.0964</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>12.4103</v>
       </c>
       <c r="C12" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D12" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E12" s="1">
-        <v>7879.8743</v>
+        <v>7859.9316</v>
       </c>
       <c r="F12" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>97791.6041</v>
+        <v>97349.18309999999</v>
       </c>
       <c r="I12" s="1">
         <v>-0</v>
       </c>
       <c r="J12" s="1">
-        <v>97791.6041</v>
+        <v>97349.18309999999</v>
       </c>
       <c r="K12" s="1">
-        <v>104175.6701</v>
+        <v>104167.0585</v>
       </c>
       <c r="L12" s="1">
-        <v>13.2205</v>
+        <v>13.2529</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0118</v>
+        <v>0.0112</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,49 +4337,49 @@
         <v>12.3976</v>
       </c>
       <c r="C13" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D13" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E13" s="1">
-        <v>8685.6566</v>
+        <v>8664.100399999999</v>
       </c>
       <c r="F13" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>107681.2963</v>
+        <v>107199.1819</v>
       </c>
       <c r="I13" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J13" s="1">
-        <v>107681.2963</v>
+        <v>107199.1819</v>
       </c>
       <c r="K13" s="1">
-        <v>114175.6701</v>
+        <v>114167.0585</v>
       </c>
       <c r="L13" s="1">
-        <v>13.1453</v>
+        <v>13.177</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>3545.9434</v>
+        <v>3536.9692</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-6454.0566</v>
+        <v>-6463.0308</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.001</v>
+        <v>-0.0014</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>12.9013</v>
       </c>
       <c r="C14" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D14" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E14" s="1">
-        <v>9492.264300000001</v>
+        <v>9469.097900000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9492.264300000001</v>
+        <v>-9469.097900000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>122462.5498</v>
+        <v>121919.3695</v>
       </c>
       <c r="I14" s="1">
-        <v>3545.9434</v>
+        <v>3536.9692</v>
       </c>
       <c r="J14" s="1">
-        <v>126008.4933</v>
+        <v>125456.3387</v>
       </c>
       <c r="K14" s="1">
-        <v>124175.6701</v>
+        <v>124167.0585</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0818</v>
+        <v>13.1129</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>122462.5498</v>
+        <v>121919.3695</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0708</v>
+        <v>0.07049999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>13.1096</v>
+        <v>13.1359</v>
       </c>
       <c r="D3" s="1">
-        <v>13.0019</v>
+        <v>13.0311</v>
       </c>
       <c r="E3" s="1">
-        <v>13.0218</v>
+        <v>13.0511</v>
       </c>
       <c r="F3" s="1">
-        <v>13.0466</v>
+        <v>13.0799</v>
       </c>
       <c r="G3" s="1">
-        <v>13.0818</v>
+        <v>13.1129</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.0526</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0349</v>
+        <v>0.0227</v>
       </c>
       <c r="D4" s="3">
-        <v>0.046</v>
+        <v>0.034</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0452</v>
+        <v>0.0331</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0436</v>
+        <v>0.0308</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0401</v>
+        <v>0.0275</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.2178</v>
       </c>
       <c r="C5" s="3">
-        <v>0.2131</v>
+        <v>0.2142</v>
       </c>
       <c r="D5" s="3">
-        <v>0.2092</v>
+        <v>0.2108</v>
       </c>
       <c r="E5" s="3">
-        <v>0.2111</v>
+        <v>0.2126</v>
       </c>
       <c r="F5" s="3">
-        <v>0.2128</v>
+        <v>0.2142</v>
       </c>
       <c r="G5" s="3">
-        <v>0.2141</v>
+        <v>0.2154</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-0.3347</v>
       </c>
       <c r="C6" s="4">
-        <v>0.0683</v>
+        <v>0.0112</v>
       </c>
       <c r="D6" s="4">
-        <v>0.1229</v>
+        <v>0.06510000000000001</v>
       </c>
       <c r="E6" s="4">
-        <v>0.1178</v>
+        <v>0.0602</v>
       </c>
       <c r="F6" s="4">
-        <v>0.1093</v>
+        <v>0.0489</v>
       </c>
       <c r="G6" s="4">
-        <v>0.0925</v>
+        <v>0.0331</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.089</v>
+        <v>0.0809</v>
       </c>
       <c r="D7" s="3">
-        <v>0.109</v>
+        <v>0.1001</v>
       </c>
       <c r="E7" s="3">
-        <v>0.1057</v>
+        <v>0.097</v>
       </c>
       <c r="F7" s="3">
-        <v>0.1016</v>
+        <v>0.0922</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0955</v>
+        <v>0.08649999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>7575.9911</v>
+        <v>7560.6745</v>
       </c>
       <c r="D8" s="1">
-        <v>7660.2365</v>
+        <v>7659.2051</v>
       </c>
       <c r="E8" s="1">
-        <v>7701.8012</v>
+        <v>7700.8499</v>
       </c>
       <c r="F8" s="1">
-        <v>7729.7647</v>
+        <v>7715.4237</v>
       </c>
       <c r="G8" s="1">
-        <v>7721.6136</v>
+        <v>7704.0278</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P22_KFSDIV.xlsx
+++ b/output/1Y_P22_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>8902.319</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0113</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.02</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.0185</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.0169</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.0142</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
